--- a/app/TestCases/Student/TestCases_Course_enrollment.xlsx
+++ b/app/TestCases/Student/TestCases_Course_enrollment.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27518"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{935F7364-126E-4357-BA88-979E0A565C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rehana\Desktop\Big_Data_Semester1\Programming_for_big-data\Project\FacialRecognitionAttendanceSystem\app\TestCases\Student\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A267238E-0732-4690-BABD-50D35BB25723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -130,13 +135,25 @@
   </si>
   <si>
     <t>The student sees that the course is marked as “Enrolled” in their account.</t>
+  </si>
+  <si>
+    <t>TC007</t>
+  </si>
+  <si>
+    <t>Verify Drop course button visible</t>
+  </si>
+  <si>
+    <t>1. Aftere enrolled ina  course, in list, user can remove course</t>
+  </si>
+  <si>
+    <t>remove buttom is visible to remove course</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -513,20 +530,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
-    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="1" max="1" width="13.69921875" customWidth="1"/>
+    <col min="2" max="2" width="33.8984375" customWidth="1"/>
     <col min="3" max="3" width="76.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -540,7 +557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -554,22 +571,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -583,22 +600,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -612,18 +629,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75"/>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -637,22 +653,22 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -666,22 +682,22 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -695,14 +711,30 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
